--- a/Excel Assignments/VLOOKUP 1.xlsx
+++ b/Excel Assignments/VLOOKUP 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\Excel Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC3EF2-413B-4557-8219-71D55F29885A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5259A5A-8562-4F98-B78D-47BF641AF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D8B87-3A81-492A-ADEF-EEF98CC70539}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -930,8 +930,8 @@
         <v>26</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f>VLOOKUP(B11,B3:F15,2,)</f>
-        <v>Thomas Davies</v>
+        <f>VLOOKUP(B11,B3:F15,2,TRUE)</f>
+        <v>Williamr Black</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="12">
-        <f>VLOOKUP(C14,C3:F15,4,)</f>
+        <f>VLOOKUP(C14,C3:F15,4,FALSE)</f>
         <v>30</v>
       </c>
       <c r="F19" s="2"/>
@@ -1024,7 +1024,7 @@
         <v>55879</v>
       </c>
       <c r="C24" s="13" t="str">
-        <f>VLOOKUP(B9,B3:F15,3,)</f>
+        <f>VLOOKUP(B9,B3:F15,3,TRUE)</f>
         <v>Capetown</v>
       </c>
       <c r="D24" s="2"/>
@@ -1040,7 +1040,7 @@
         <v>50217</v>
       </c>
       <c r="C25" s="13" t="str">
-        <f>VLOOKUP(B12,B3:F15,3,)</f>
+        <f>VLOOKUP(B12,B3:F15,3,FALSE)</f>
         <v>Warsaw</v>
       </c>
       <c r="D25" s="2"/>
@@ -1056,7 +1056,7 @@
         <v>50695</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f>VLOOKUP(B13,B3:F15,3,)</f>
+        <f>VLOOKUP(B13,B3:F15,3,FALSE)</f>
         <v>Cairo</v>
       </c>
       <c r="D26" s="2"/>
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="13">
-        <f>VLOOKUP(C7,C3:F15,3,)</f>
+        <f>VLOOKUP(C7,C3:F15,3,FALSE)</f>
         <v>18276</v>
       </c>
       <c r="D31" s="2"/>
@@ -1156,7 +1156,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="13">
-        <f>VLOOKUP(C14,C3:F15,3,)</f>
+        <f>VLOOKUP(C14,C3:F15,3,FALSE)</f>
         <v>10959</v>
       </c>
       <c r="D33" s="2"/>
